--- a/extra_files/history.xlsx
+++ b/extra_files/history.xlsx
@@ -5,23 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cdurant\Documents\GitHub\RFPFinder\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cdurant\Documents\GitHub\RFPFinder\extra_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5202D278-51BC-48BE-9AE3-15F59EB895CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D378CA-D54B-4D33-9A54-E704522565C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6615" yWindow="1185" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2430" yWindow="1395" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Runs" sheetId="1" r:id="rId1"/>
     <sheet name="PDF Downloads" sheetId="2" r:id="rId2"/>
+    <sheet name="FBO FTP Access" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>Time</t>
   </si>
@@ -33,6 +34,9 @@
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>Has New Data</t>
   </si>
 </sst>
 </file>
@@ -414,13 +418,13 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -441,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,4 +474,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49C3AE7-F899-4D06-B401-C6A5CC3AE454}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/extra_files/history.xlsx
+++ b/extra_files/history.xlsx
@@ -8,24 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cdurant\Documents\GitHub\RFPFinder\extra_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D378CA-D54B-4D33-9A54-E704522565C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4BC088-43CB-4392-9A39-248D327A829C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="1395" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5640" yWindow="3075" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Runs" sheetId="1" r:id="rId1"/>
     <sheet name="PDF Downloads" sheetId="2" r:id="rId2"/>
     <sheet name="FBO FTP Access" sheetId="3" r:id="rId3"/>
+    <sheet name="NY Rev Connect" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
-  <si>
-    <t>Time</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Change Type</t>
   </si>
@@ -37,6 +35,21 @@
   </si>
   <si>
     <t>Has New Data</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Time Run For (2d behind)</t>
+  </si>
+  <si>
+    <t>Time Run</t>
+  </si>
+  <si>
+    <t>Time Saved</t>
   </si>
 </sst>
 </file>
@@ -418,21 +431,21 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -446,12 +459,12 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -459,16 +472,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -478,28 +491,63 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49C3AE7-F899-4D06-B401-C6A5CC3AE454}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4350FDA5-B262-4E1A-A365-4B77F1CB32A3}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/extra_files/history.xlsx
+++ b/extra_files/history.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cdurant\Documents\GitHub\RFPFinder\extra_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4BC088-43CB-4392-9A39-248D327A829C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53617463-65EB-4FBE-B2FE-F12069C209F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="3075" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2865" yWindow="1290" windowWidth="21615" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Runs" sheetId="1" r:id="rId1"/>
     <sheet name="PDF Downloads" sheetId="2" r:id="rId2"/>
-    <sheet name="FBO FTP Access" sheetId="3" r:id="rId3"/>
-    <sheet name="NY Rev Connect" sheetId="4" r:id="rId4"/>
+    <sheet name="Created Folder" sheetId="6" r:id="rId3"/>
+    <sheet name="FBO FTP Access" sheetId="3" r:id="rId4"/>
+    <sheet name="AEP" sheetId="5" r:id="rId5"/>
+    <sheet name="NY Rev Connect" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Change Type</t>
   </si>
@@ -50,6 +52,12 @@
   </si>
   <si>
     <t>Time Saved</t>
+  </si>
+  <si>
+    <t>Time Created</t>
+  </si>
+  <si>
+    <t>Folder Location</t>
   </si>
 </sst>
 </file>
@@ -431,7 +439,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +467,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,6 +498,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FFBD6B-396C-4F03-A822-8A40067594B6}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49C3AE7-F899-4D06-B401-C6A5CC3AE454}">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -524,11 +559,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9988E834-2F78-4AB0-BE75-3F0634810BC4}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4350FDA5-B262-4E1A-A365-4B77F1CB32A3}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>

--- a/extra_files/history.xlsx
+++ b/extra_files/history.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cdurant\Documents\GitHub\RFPFinder\extra_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53617463-65EB-4FBE-B2FE-F12069C209F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3DB2E5-9525-4B21-BBCF-1AB4FBA4AFB7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="1290" windowWidth="21615" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="2040" windowWidth="21600" windowHeight="11400" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Runs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Change Type</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Folder Location</t>
+  </si>
+  <si>
+    <t>Area Location</t>
   </si>
 </sst>
 </file>
@@ -501,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FFBD6B-396C-4F03-A822-8A40067594B6}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,9 +531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49C3AE7-F899-4D06-B401-C6A5CC3AE454}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -561,24 +562,32 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9988E834-2F78-4AB0-BE75-3F0634810BC4}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/extra_files/history.xlsx
+++ b/extra_files/history.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cdurant\Documents\GitHub\RFPFinder\extra_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3DB2E5-9525-4B21-BBCF-1AB4FBA4AFB7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06B5C94-DCB7-44BD-981B-9EEB647B6881}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="2040" windowWidth="21600" windowHeight="11400" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1830" windowWidth="21600" windowHeight="11400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Runs" sheetId="1" r:id="rId1"/>
     <sheet name="PDF Downloads" sheetId="2" r:id="rId2"/>
-    <sheet name="Created Folder" sheetId="6" r:id="rId3"/>
-    <sheet name="FBO FTP Access" sheetId="3" r:id="rId4"/>
-    <sheet name="AEP" sheetId="5" r:id="rId5"/>
-    <sheet name="NY Rev Connect" sheetId="4" r:id="rId6"/>
+    <sheet name="Excel Downloads" sheetId="7" r:id="rId3"/>
+    <sheet name="Created Folder" sheetId="6" r:id="rId4"/>
+    <sheet name="FBO FTP Access" sheetId="3" r:id="rId5"/>
+    <sheet name="AEP" sheetId="5" r:id="rId6"/>
+    <sheet name="NY Rev Connect" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>Change Type</t>
   </si>
@@ -61,6 +62,9 @@
   </si>
   <si>
     <t>Area Location</t>
+  </si>
+  <si>
+    <t>Excel Name</t>
   </si>
 </sst>
 </file>
@@ -470,7 +474,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,6 +505,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F7F703-63A6-469C-A7C2-5E9357775835}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FFBD6B-396C-4F03-A822-8A40067594B6}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -527,7 +566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49C3AE7-F899-4D06-B401-C6A5CC3AE454}">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -560,11 +599,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9988E834-2F78-4AB0-BE75-3F0634810BC4}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -595,7 +634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4350FDA5-B262-4E1A-A365-4B77F1CB32A3}">
   <dimension ref="A1:C1"/>
   <sheetViews>
